--- a/Distributions.xlsx
+++ b/Distributions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizzo\Desktop\QMBE 1320_Donovan_Harless\QMBE_1320_Donovan-Harless\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DDC00DC-8B75-4CE7-9757-6B8E368AF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB6C18-600E-432D-83CE-42D4B1EC9F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{34D84CE5-52C9-4AAE-A579-52DD84A0C413}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{34D84CE5-52C9-4AAE-A579-52DD84A0C413}"/>
   </bookViews>
   <sheets>
     <sheet name="Binomial" sheetId="1" r:id="rId1"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9F0079-9952-4C97-8552-6E142D6D62CA}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,105 +605,273 @@
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4" s="2">
+        <f>_xlfn.POISSON.DIST(A4,$D$1,FALSE)</f>
+        <v>4.5399929762484854E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <f>_xlfn.POISSON.DIST(A4,$D$1,TRUE)</f>
+        <v>4.5399929762484854E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B24" si="0">_xlfn.POISSON.DIST(A5,$D$1,FALSE)</f>
+        <v>4.5399929762484861E-4</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C24" si="1">_xlfn.POISSON.DIST(A5,$D$1,TRUE)</f>
+        <v>4.9939922738733344E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2699964881242444E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7693957155115762E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5666549604141483E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0336050675925718E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8916637401035354E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9252688076961065E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7833274802070715E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>6.7085962879031805E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3055458003451192E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13014142088248298</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0079225719215977E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <f>_xlfn.POISSON.DIST(A11,$D$1,TRUE)</f>
+        <v>0.22022064660169899</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11259903214901996</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33281967875071894</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1251100357211333</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45792971447185227</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1251100357211333</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58303975019298537</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11373639611012118</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.69677614630310658</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4780330091767673E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79155647639487436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2907946224436637E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.864464422619311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2077104446026187E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.9165415270653372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4718069630684127E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95125959669602134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1698793519177549E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97295839021519881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2763996187751522E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.9857223864029504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0911089931952852E-3</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99281349539614561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7321626279975249E-3</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99654565802414319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8660813139987594E-3</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99841173933814198</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69047FFB-36DD-4E5C-AB63-53CAD8DEE851}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,11 +912,19 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <f>_xlfn.NORM.DIST(40000,$B$1,$B$2,TRUE)</f>
+        <v>0.75803634777692697</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6">
+        <f>1-B5</f>
+        <v>0.24196365222307303</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -758,6 +934,22 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.NORM.DIST(40000,B1,B2,TRUE)</f>
+        <v>0.75803634777692697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>_xlfn.NORM.DIST(30000,B1,B2,TRUE)</f>
+        <v>9.6800484585610316E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>B10-B11</f>
+        <v>0.66123586319131666</v>
       </c>
     </row>
   </sheetData>
@@ -769,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D89186-6E2E-410B-8662-C4EF42EF27B0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,15 +982,27 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3">
+        <f>_xlfn.EXPON.DIST(18,1/B1,TRUE)</f>
+        <v>0.69880578808779781</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4">
+        <f>_xlfn.EXPON.DIST(6,1/B1,TRUE)</f>
+        <v>0.32967995396436073</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B5">
+        <f>B3-B4</f>
+        <v>0.36912583412343708</v>
       </c>
     </row>
   </sheetData>
@@ -807,6 +1011,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E651AD706E3D1F4F9C41BAF2CFB702B9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="979eecff06bb40b6e48efc9b7cc02658">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="103fe360-f1be-4ef8-be49-d8d45c5ebb3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5807afbf285408387d9bce7a04015a16" ns3:_="">
     <xsd:import namespace="103fe360-f1be-4ef8-be49-d8d45c5ebb3d"/>
@@ -956,15 +1169,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -972,6 +1176,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921B09AA-5B1C-48E2-B1B6-28425BC228C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7244BA1E-B997-4005-8108-367F1924F5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -989,14 +1201,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921B09AA-5B1C-48E2-B1B6-28425BC228C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6678511B-B632-45BD-8260-A53B6080F948}">
   <ds:schemaRefs>
